--- a/文档备份/数据字典模板/2.ODS - 数据字典.xlsx
+++ b/文档备份/数据字典模板/2.ODS - 数据字典.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\数据字典模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFD54B-71AA-4FB6-83F3-4DA8505A7601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70BAD2A-3444-431D-8FA8-E9DA70D3D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3216,9 +3216,6 @@
     <t>表空间</t>
   </si>
   <si>
-    <t>索引</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -3562,6 +3559,9 @@
   </si>
   <si>
     <t>第一季折率</t>
+  </si>
+  <si>
+    <t>分区键</t>
   </si>
 </sst>
 </file>
@@ -4267,7 +4267,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1000" sqref="D1000"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -40440,7 +40440,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -40471,14 +40471,14 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>1028</v>
+        <v>1143</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="31"/>
@@ -40498,22 +40498,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>1034</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1035</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -40524,22 +40524,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -40547,22 +40547,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -40570,22 +40570,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>1049</v>
-      </c>
       <c r="E9" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -40593,22 +40593,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>1051</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -40616,22 +40616,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>1053</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -40639,20 +40639,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -40660,22 +40660,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>1056</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -40683,20 +40683,20 @@
         <v>8</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E14" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>1045</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>1046</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -40704,22 +40704,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>1061</v>
-      </c>
       <c r="D15" s="30" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E15" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>1045</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>1046</v>
-      </c>
       <c r="G15" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -40727,22 +40727,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>1063</v>
-      </c>
       <c r="D16" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F16" s="30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -40750,19 +40750,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>1066</v>
-      </c>
       <c r="E17" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -40771,19 +40771,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>1068</v>
-      </c>
       <c r="D18" s="30" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E18" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -40792,19 +40792,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1069</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="30" t="s">
         <v>1070</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>1071</v>
-      </c>
       <c r="E19" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -40813,17 +40813,17 @@
         <v>14</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -40832,22 +40832,22 @@
         <v>15</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1074</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>1075</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>1076</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -40855,19 +40855,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1086</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
         <v>1087</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>1088</v>
-      </c>
       <c r="E22" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -40876,22 +40876,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="30" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1089</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>1090</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>1091</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -40899,22 +40899,22 @@
         <v>18</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>1094</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -40983,7 +40983,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -41014,14 +41014,14 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>1028</v>
+        <v>1143</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="31"/>
@@ -41041,22 +41041,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>1034</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1035</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -41067,22 +41067,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>1079</v>
-      </c>
       <c r="D7" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -41090,22 +41090,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>1098</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -41113,22 +41113,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>1101</v>
-      </c>
       <c r="E9" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -41136,22 +41136,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -41159,19 +41159,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>1088</v>
-      </c>
       <c r="E11" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -41180,22 +41180,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>1091</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -41203,22 +41203,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>1094</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -41287,7 +41287,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -41318,14 +41318,14 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>1028</v>
+        <v>1143</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="31"/>
@@ -41345,22 +41345,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>1034</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1035</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -41371,22 +41371,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -41394,20 +41394,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -41415,22 +41415,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>1106</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -41438,19 +41438,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>1079</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -41459,19 +41459,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>1108</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -41480,22 +41480,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>1110</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -41503,22 +41503,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>1114</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -41526,19 +41526,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>1117</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -41547,19 +41547,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>1119</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -41568,19 +41568,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>1120</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>1121</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -41589,19 +41589,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>1122</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>1123</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -41610,22 +41610,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>1125</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -41633,22 +41633,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>1128</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -41656,19 +41656,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>1130</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>1131</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -41677,19 +41677,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>1133</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -41698,19 +41698,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>1135</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -41719,19 +41719,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>1137</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -41740,20 +41740,20 @@
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>1138</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -41761,20 +41761,20 @@
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>1046</v>
-      </c>
       <c r="G25" s="11" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -41782,19 +41782,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>1084</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -41803,19 +41803,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>1143</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -41824,19 +41824,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>1088</v>
-      </c>
       <c r="E28" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>1046</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -41845,22 +41845,22 @@
         <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>1091</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -41868,22 +41868,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>1094</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>1095</v>
       </c>
     </row>
   </sheetData>
